--- a/Data/ProviderDebt.xlsx
+++ b/Data/ProviderDebt.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mierR6hB2C9Ji9VtbkvOK4lA1kBLg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhw5G23m3T8xEWjBbpJ8O4M7rZf+A=="/>
     </ext>
   </extLst>
 </workbook>
@@ -65,7 +65,7 @@
     <t>How has debt impacted your wellbeing and the decisions you can make about the future (ex. Changing jobs, family planning, etc.)?</t>
   </si>
   <si>
-    <t>[Free response]</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t xml:space="preserve">Do you currently have overdue bills?  
@@ -662,7 +662,7 @@
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1"/>

--- a/Data/ProviderDebt.xlsx
+++ b/Data/ProviderDebt.xlsx
@@ -8,15 +8,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhw5G23m3T8xEWjBbpJ8O4M7rZf+A=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="IdvgW/dfxaS0eGhwn/n3GNBAZ/KeyTKIJF4mk8pqXZQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Question</t>
   </si>
@@ -41,7 +41,7 @@
 </t>
   </si>
   <si>
-    <t>01/31/2022-02/11/2022</t>
+    <t>01/31/2022-02/11/2022 06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t>What is the current amount of the unpaid loans you have related to these credentials, credits, or degree(s)?</t>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>Open ended response</t>
+  </si>
+  <si>
+    <t>01/31/2022-02/11/2022</t>
+  </si>
+  <si>
+    <t>How has debt impacted your wellbeing and the decisions you can make about the future?</t>
+  </si>
+  <si>
+    <t>06/07/2023-06/14/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Do you currently have overdue bills?  
@@ -170,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -189,6 +198,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -668,7 +680,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -693,16 +705,16 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" ht="153.0" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
+      <c r="A9" s="7" t="s">
+        <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -726,17 +738,17 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" ht="153.0" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -760,17 +772,17 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" ht="102.0" customHeight="1">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -794,17 +806,17 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" ht="169.5" customHeight="1">
+    <row r="12" ht="102.0" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -828,17 +840,17 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" ht="169.5" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -862,12 +874,18 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" ht="76.5" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -890,9 +908,9 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" ht="160.5" customHeight="1">
+    <row r="15" ht="76.5" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -918,9 +936,9 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+    <row r="16" ht="160.5" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -28498,6 +28516,34 @@
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
     </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
